--- a/data/publikacije.xlsx
+++ b/data/publikacije.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28957\Documents\DELO\prog_skupine_raz_uspesnost\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228C12BD-5278-4B66-9991-03DB25491FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA2FC08-19E2-4197-91F1-2A1107F1F947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="3264" windowWidth="19200" windowHeight="10560" xr2:uid="{E0CBE77D-3269-4022-B168-B59C194AE0FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E0CBE77D-3269-4022-B168-B59C194AE0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -420,12 +420,12 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,7 +436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -447,7 +447,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -458,7 +458,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -469,7 +469,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -480,7 +480,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -491,7 +491,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -502,7 +502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -513,15 +513,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2025</v>
       </c>
       <c r="B9">
-        <v>909</v>
+        <v>923</v>
       </c>
       <c r="C9">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/publikacije.xlsx
+++ b/data/publikacije.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\28957\Documents\DELO\prog_skupine_raz_uspesnost\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA2FC08-19E2-4197-91F1-2A1107F1F947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE08616C-7AE4-4B9C-AA5A-4B585B0AA93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{E0CBE77D-3269-4022-B168-B59C194AE0FC}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="41472" windowHeight="16752" xr2:uid="{E0CBE77D-3269-4022-B168-B59C194AE0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +507,7 @@
         <v>2024</v>
       </c>
       <c r="B8">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C8">
         <v>101</v>
